--- a/testing_03112024/cv/test_evaluation_results.xlsx
+++ b/testing_03112024/cv/test_evaluation_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,22 +468,616 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8775510204081632</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.897820374590836</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8775510204081632</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8774840822701592</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8724489795918368</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8752815560825685</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8724489795918368</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8727524581092928</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8954081632653061</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9056651485427873</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8954081632653061</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8956254626271681</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SVM_Linear</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9005102040816326</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9072182313704507</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9005102040816326</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9007638341400129</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SVM_RBF</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8954081632653061</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9021070244954283</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8954081632653061</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.895674799993347</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SVM_Poly</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8954081632653061</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.895533727594044</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8954081632653061</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8951809623522579</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>SVM_Sigmoid</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8954081632653061</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.904393284407359</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8954081632653061</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.895647335451331</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8670756646216768</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8859505904083383</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8670756646216768</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8669622560170172</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8813905930470347</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8828720861089899</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8813905930470347</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8815999952686788</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.901840490797546</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9119677586906578</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.901840490797546</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9020031316579818</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SVM_Linear</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.901840490797546</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9090529668714943</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.901840490797546</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9020500998519995</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SVM_RBF</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8895705521472392</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8958972905938682</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8895705521472392</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8898166087155825</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SVM_Poly</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9059304703476483</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9062456312390265</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9059304703476483</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9057031452225726</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SVM_Sigmoid</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8936605316973415</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9027109223428242</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8936605316973415</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8938572324782087</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8926746166950597</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9047751306114133</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8926746166950597</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8924302370157821</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.889267461669506</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8906023987732027</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.889267461669506</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8893543119806194</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9114139693356048</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.918995962950768</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9114139693356048</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.911365118257582</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SVM_Linear</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.909710391822828</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9154788477253264</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.909710391822828</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.909710391822828</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SVM_RBF</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8977853492333902</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9025387585684241</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8977853492333902</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8978120479754641</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SVM_Poly</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.899488926746167</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9005152610649383</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.899488926746167</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8992391689129058</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SVM_Sigmoid</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9011925042589438</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9086770312895175</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9011925042589438</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9011380165180725</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
         <v>0.35</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C23" t="n">
+        <v>0.9021897810218978</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9143621759871257</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9021897810218978</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9019519446231667</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.891970802919708</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8930988606169221</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.891970802919708</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8920482326319401</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9138686131386862</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9203843990600941</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9138686131386862</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9138385081163074</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SVM_Linear</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9007299270072993</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9068460111641775</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9007299270072993</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9007045391075705</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SVM_RBF</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.8963503649635036</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9015960116994011</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.8963503649635036</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.8963503649635036</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SVM_Poly</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.891970802919708</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8929793807468266</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.891970802919708</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.8917065118732346</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SVM_Sigmoid</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C29" t="n">
         <v>0.8948905109489051</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D29" t="n">
         <v>0.9028273320244123</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E29" t="n">
         <v>0.8948905109489051</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F29" t="n">
         <v>0.8947977562116236</v>
       </c>
     </row>
